--- a/Assignments/Module 2/HLR & TESTCASES.xlsx
+++ b/Assignments/Module 2/HLR & TESTCASES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOPS-master\Assignments\Module 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-nisha-24\TOPS\Assignments\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7E58A-4BB1-4DC5-AF38-2C913F1F8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69A83D-0072-40A3-A5E8-27D7C81798A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="815" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR OF WHATSAPP_WEB" sheetId="1" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,6 +2407,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2478,7 +2485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2581,6 +2588,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3128,10 +3141,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A27579-070F-4B9A-B5FE-6DF327C47025}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4232,11 +4245,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9011D73-BCB8-4096-920B-6306E84EFC3F}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4882,18 +4895,17 @@
       <c r="G22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="37.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="19"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="37.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="I22" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="37.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I10" xr:uid="{DB1A1918-0631-4CD9-9E5D-1CBDA36308CC}">
